--- a/database/OLD/RAPRO22232023/CB/CB.xlsx
+++ b/database/OLD/RAPRO22232023/CB/CB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Universidad Católica</t>
+          <t>Universidad</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -30407,7 +30407,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -32213,7 +32213,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C757" t="n">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C758" t="n">
@@ -32591,7 +32591,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>River Plate (URU)</t>
         </is>
       </c>
       <c r="C766" t="n">
@@ -44141,7 +44141,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C1041" t="n">
@@ -44309,7 +44309,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C1045" t="n">
@@ -46325,7 +46325,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fortaleza (COL)</t>
         </is>
       </c>
       <c r="C1093" t="n">
@@ -59471,7 +59471,7 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1406" t="n">
@@ -59807,7 +59807,7 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1414" t="n">
@@ -59849,7 +59849,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Libertad (ECU)</t>
         </is>
       </c>
       <c r="C1415" t="n">

--- a/database/OLD/RAPRO22232023/CB/CB.xlsx
+++ b/database/OLD/RAPRO22232023/CB/CB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Everton (CHI)</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Barcelona (ECU)</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -32213,7 +32213,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C757" t="n">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Liverpool (URU)</t>
         </is>
       </c>
       <c r="C758" t="n">

--- a/database/OLD/RAPRO22232023/CB/CB.xlsx
+++ b/database/OLD/RAPRO22232023/CB/CB.xlsx
@@ -22217,7 +22217,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Arsenal Sarandi</t>
         </is>
       </c>
       <c r="C573" t="n">
